--- a/assets/wireframe.xlsx
+++ b/assets/wireframe.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liene\bootcamp\class-work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liene\bootcamp\challenge-2-bc26\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA71483-8E34-4838-83AB-FE77967F9B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15899EE9-EE9A-4FA6-BFEB-1B81B87179D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8D8A2637-FEF3-443C-8B76-B3F1B49A07EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{8D8A2637-FEF3-443C-8B76-B3F1B49A07EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="1" r:id="rId1"/>
     <sheet name="Services" sheetId="3" r:id="rId2"/>
     <sheet name="About Us" sheetId="2" r:id="rId3"/>
     <sheet name="Reviews" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="ContactUs" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -305,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -319,7 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -333,7 +332,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -348,7 +347,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -687,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFF4CFD-1C21-4C1A-B222-EBB9FF1FA55D}">
   <dimension ref="B2:L53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -1078,16 +1093,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D19421C-3C96-465C-B56C-A98DEB31E6AA}">
-  <dimension ref="B1:M45"/>
+  <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -1107,21 +1122,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1133,97 +1135,38 @@
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="13"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
-      <c r="C6" s="13" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="13"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="4"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
       <c r="L7" s="5"/>
-      <c r="M7" s="13"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="4"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
       <c r="L8" s="5"/>
-      <c r="M8" s="13"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="4"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="13"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="4"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13" t="s">
+      <c r="K10" t="s">
         <v>22</v>
       </c>
       <c r="L10" s="5"/>
-      <c r="M10" s="13"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="4"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="13"/>
-    </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
@@ -1235,31 +1178,9 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="13"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-    </row>
-    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1271,97 +1192,38 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="3"/>
-      <c r="M16" s="13"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
-      <c r="C17" s="13" t="s">
+      <c r="C17" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="13"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="4"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="13"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="4"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="13"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="4"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="13"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13" t="s">
+      <c r="K21" t="s">
         <v>22</v>
       </c>
       <c r="L21" s="5"/>
-      <c r="M21" s="13"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="4"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="13"/>
-    </row>
-    <row r="23" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="6"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1373,30 +1235,9 @@
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
       <c r="L23" s="8"/>
-      <c r="M23" s="13"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-    </row>
-    <row r="25" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1409,86 +1250,34 @@
       <c r="K26" s="2"/>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
-      <c r="C27" s="13" t="s">
+      <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="4"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
       <c r="L30" s="5"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="4"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13" t="s">
+      <c r="K31" t="s">
         <v>22</v>
       </c>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1503,16 +1292,6 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
     </row>
     <row r="35" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
@@ -1626,126 +1405,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-    </row>
-    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-    </row>
+    </row>
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="17"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="20"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="20"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="20"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="23"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
@@ -1965,10 +1697,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6CC3EC-5B6B-40FB-9E59-569485794B09}">
-  <dimension ref="B1:L53"/>
+  <dimension ref="B1:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1994,430 +1726,294 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-    </row>
+    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-    </row>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-    </row>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-    </row>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="3"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-    </row>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="29"/>
+    </row>
+    <row r="27" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
+      <c r="B28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="4"/>
+      <c r="L29" s="5"/>
+    </row>
+    <row r="30" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="4"/>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="9"/>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" s="9"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
+      <c r="B31" s="4"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
+      <c r="B32" s="4"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="8"/>
     </row>
     <row r="35" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2429,122 +2025,67 @@
       <c r="K36" s="2"/>
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="4"/>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="4"/>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="I38" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="9"/>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L38" s="5"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="L39" s="5"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
+    <row r="40" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="43" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>17</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="4" t="s">
+      <c r="B41" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I49" s="9" t="s">
+      <c r="I41" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="L49" s="12"/>
-    </row>
-    <row r="50" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="8"/>
-    </row>
-    <row r="52" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F53" s="10"/>
-      <c r="G53" s="11" t="s">
+      <c r="L41" s="12"/>
+    </row>
+    <row r="42" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="6"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="44" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="45" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F45" s="10"/>
+      <c r="G45" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H53" s="12"/>
+      <c r="H45" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/assets/wireframe.xlsx
+++ b/assets/wireframe.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liene\bootcamp\challenge-2-bc26\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15899EE9-EE9A-4FA6-BFEB-1B81B87179D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AF5235-A131-47F8-8BEC-E6FE1219C748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{8D8A2637-FEF3-443C-8B76-B3F1B49A07EF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8D8A2637-FEF3-443C-8B76-B3F1B49A07EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Home Page" sheetId="1" r:id="rId1"/>
     <sheet name="Services" sheetId="3" r:id="rId2"/>
     <sheet name="About Us" sheetId="2" r:id="rId3"/>
-    <sheet name="Reviews" sheetId="4" r:id="rId4"/>
-    <sheet name="ContactUs" sheetId="5" r:id="rId5"/>
+    <sheet name="ContactUs" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="25">
   <si>
     <t>Logo</t>
   </si>
@@ -72,9 +71,6 @@
     <t>Service 3</t>
   </si>
   <si>
-    <t>Past Works Gallery</t>
-  </si>
-  <si>
     <t>Copyright</t>
   </si>
   <si>
@@ -111,19 +107,13 @@
     <t>Call Now</t>
   </si>
   <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.</t>
-  </si>
-  <si>
-    <t>Laura</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Eliza</t>
+    <t>contact us</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>description</t>
   </si>
 </sst>
 </file>
@@ -161,7 +151,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -301,11 +291,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -348,24 +347,7 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCFF4CFD-1C21-4C1A-B222-EBB9FF1FA55D}">
-  <dimension ref="B2:L53"/>
+  <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,17 +694,14 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
@@ -854,17 +833,17 @@
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="4"/>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="5"/>
       <c r="F21" s="4"/>
       <c r="G21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H21" s="5"/>
       <c r="J21" s="4"/>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L21" s="5"/>
     </row>
@@ -881,210 +860,136 @@
     </row>
     <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="I25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4"/>
-      <c r="C26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="I26" s="4"/>
-      <c r="J26" t="s">
-        <v>5</v>
-      </c>
       <c r="L26" s="5"/>
     </row>
     <row r="27" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="4"/>
-      <c r="G27" s="5"/>
-      <c r="I27" s="4"/>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
       <c r="J27" s="9"/>
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
-      <c r="G28" s="5"/>
-      <c r="I28" s="4"/>
       <c r="L28" s="5"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="4"/>
-      <c r="G29" s="5"/>
-      <c r="I29" s="4"/>
       <c r="L29" s="5"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
-      <c r="G30" s="5"/>
-      <c r="I30" s="4"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="I31" s="4"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-      <c r="G32" s="5"/>
-      <c r="I32" s="4"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="8"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="35" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L35" s="5"/>
+    </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="3"/>
+      <c r="B36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L36" s="5"/>
     </row>
     <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="4"/>
-      <c r="C38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="F38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="I38" t="s">
-        <v>16</v>
-      </c>
-      <c r="J38" s="9"/>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="4"/>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="4"/>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="6"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="8"/>
-    </row>
-    <row r="43" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B45" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="B38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I38" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="L45" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L46" s="5"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L47" s="5"/>
-    </row>
-    <row r="48" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="5"/>
-    </row>
-    <row r="49" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I49" s="9" t="s">
+      <c r="K38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="K49" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L49" s="12"/>
-    </row>
-    <row r="50" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="6"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="8"/>
-    </row>
-    <row r="52" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F53" s="10"/>
-      <c r="G53" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="12"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="8"/>
+    </row>
+    <row r="41" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="10"/>
+      <c r="G42" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1093,43 +998,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D19421C-3C96-465C-B56C-A98DEB31E6AA}">
-  <dimension ref="B1:L45"/>
+  <dimension ref="B2:L45"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="23" t="s">
         <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1138,27 +1041,37 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="L7" s="5"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="4"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="3"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="4"/>
+    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="4"/>
-      <c r="K10" t="s">
-        <v>22</v>
+    <row r="10" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="8"/>
+      <c r="K10" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="L10" s="5"/>
     </row>
@@ -1180,13 +1093,15 @@
       <c r="L12" s="8"/>
     </row>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="G16" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1195,27 +1110,37 @@
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="4"/>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4"/>
       <c r="L18" s="5"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="3"/>
       <c r="L19" s="5"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="E20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="5"/>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
+    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="6"/>
+      <c r="C21" s="8"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="8"/>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21" s="5"/>
     </row>
@@ -1237,13 +1162,15 @@
       <c r="L23" s="8"/>
     </row>
     <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="G26" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1252,32 +1179,42 @@
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="4"/>
-      <c r="C27" t="s">
-        <v>9</v>
-      </c>
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="4"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="4"/>
       <c r="L29" s="5"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B30" s="4"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="3"/>
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
+      <c r="B31" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="E31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F31" s="5"/>
       <c r="K31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L31" s="5"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
+    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="6"/>
+      <c r="C32" s="8"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="8"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1312,7 +1249,7 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L37" s="5" t="s">
         <v>0</v>
@@ -1341,10 +1278,10 @@
         <v>6</v>
       </c>
       <c r="I41" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="L41" s="12"/>
     </row>
@@ -1365,7 +1302,7 @@
     <row r="45" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F45" s="10"/>
       <c r="G45" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H45" s="12"/>
     </row>
@@ -1376,30 +1313,26 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA552FA9-29D7-4D5F-AE25-085F93407023}">
-  <dimension ref="B1:L42"/>
+  <dimension ref="B2:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="I2" sqref="I2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>5</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
@@ -1408,13 +1341,13 @@
     <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
@@ -1479,212 +1412,77 @@
       <c r="K11" s="21"/>
       <c r="L11" s="22"/>
     </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" t="s">
+    <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="23" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F24" s="10"/>
+      <c r="G24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="I15" s="4"/>
-      <c r="J15" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="4"/>
-      <c r="G16" s="5"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="9"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="G17" s="5"/>
-      <c r="I17" s="4"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-      <c r="G18" s="5"/>
-      <c r="I18" s="4"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="4"/>
-      <c r="G19" s="5"/>
-      <c r="I19" s="4"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="4"/>
-      <c r="G20" s="5"/>
-      <c r="I20" s="4"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="4"/>
-      <c r="G21" s="5"/>
-      <c r="I21" s="4"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="24" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="4"/>
-      <c r="L26" s="5"/>
-    </row>
-    <row r="27" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="4"/>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="9"/>
-      <c r="I27" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="4"/>
-      <c r="L28" s="5"/>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B29" s="4"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="6"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="8"/>
-    </row>
-    <row r="32" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J34" t="s">
-        <v>17</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L35" s="5"/>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L36" s="5"/>
-    </row>
-    <row r="37" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L37" s="5"/>
-    </row>
-    <row r="38" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L38" s="12"/>
-    </row>
-    <row r="39" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="6"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="8"/>
-    </row>
-    <row r="41" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F42" s="10"/>
-      <c r="G42" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="12"/>
+      <c r="H24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1696,31 +1494,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE6CC3EC-5B6B-40FB-9E59-569485794B09}">
-  <dimension ref="B1:L45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A488C51A-9DD0-4627-ACC9-CA3940F7F944}">
+  <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37:B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>4</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>5</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
@@ -1729,7 +1523,7 @@
     <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1742,409 +1536,6 @@
       <c r="K5" s="2"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="4"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="27"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
-      <c r="L8" s="29"/>
-    </row>
-    <row r="9" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="4"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="27"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
-    </row>
-    <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="4"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
-    </row>
-    <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B23" s="4"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="27"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="29"/>
-    </row>
-    <row r="27" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="4"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="30" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="4"/>
-      <c r="C30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="9"/>
-      <c r="I30" t="s">
-        <v>16</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="L30" s="5"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B31" s="4"/>
-      <c r="L31" s="5"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B32" s="4"/>
-      <c r="L32" s="5"/>
-    </row>
-    <row r="33" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="35" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B37" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J37" t="s">
-        <v>17</v>
-      </c>
-      <c r="L37" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="L38" s="5"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L39" s="5"/>
-    </row>
-    <row r="40" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L40" s="5"/>
-    </row>
-    <row r="41" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="L41" s="12"/>
-    </row>
-    <row r="42" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="6"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="8"/>
-    </row>
-    <row r="44" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="45" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F45" s="10"/>
-      <c r="G45" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H45" s="12"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B7:L8"/>
-    <mergeCell ref="B12:L13"/>
-    <mergeCell ref="B18:L19"/>
-    <mergeCell ref="B24:L25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A488C51A-9DD0-4627-ACC9-CA3940F7F944}">
-  <dimension ref="B1:L22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3"/>
-    </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
       <c r="L6" s="5"/>
@@ -2152,15 +1543,15 @@
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="4"/>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="9"/>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="9"/>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="9"/>
       <c r="L7" s="5"/>
@@ -2205,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L14" s="5" t="s">
         <v>0</v>
@@ -2234,10 +1625,10 @@
         <v>6</v>
       </c>
       <c r="I18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>19</v>
       </c>
       <c r="L18" s="12"/>
     </row>
@@ -2258,7 +1649,7 @@
     <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F22" s="10"/>
       <c r="G22" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H22" s="12"/>
     </row>
